--- a/participants security.xlsx
+++ b/participants security.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Daily Visitor Requests 2014</t>
   </si>
@@ -60,25 +60,10 @@
     <t>6pm</t>
   </si>
   <si>
-    <t>Azeya Webb</t>
-  </si>
-  <si>
-    <t>2pm</t>
-  </si>
-  <si>
-    <t>Suraj Solank</t>
-  </si>
-  <si>
-    <t>Camila Ramirez</t>
-  </si>
-  <si>
-    <t>4pm</t>
-  </si>
-  <si>
-    <t>5:10pm</t>
-  </si>
-  <si>
-    <t>Lauren May</t>
+    <t>Stacey Reiss</t>
+  </si>
+  <si>
+    <t>10am</t>
   </si>
 </sst>
 </file>
@@ -189,8 +174,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -245,7 +234,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -261,6 +250,8 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -276,6 +267,8 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,16 +601,16 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -738,48 +731,28 @@
       <c r="C10" s="13">
         <v>1139</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>16</v>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1139</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1139</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:8">
